--- a/biology/Zoologie/Cercosaura_ocellata/Cercosaura_ocellata.xlsx
+++ b/biology/Zoologie/Cercosaura_ocellata/Cercosaura_ocellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cercosaura ocellata est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cercosaura ocellata est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Venezuela, au Guyana, au Suriname, en Guyane, au Brésil, au Pérou, en Bolivie, au Paraguay et en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Venezuela, au Guyana, au Suriname, en Guyane, au Brésil, au Pérou, en Bolivie, au Paraguay et en Argentine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 décembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 décembre 2015) :
 Cercosaura ocellata ocellata Wagler, 1830
 Cercosaura ocellata petersi Ruibal, 1952</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La  sous-espèce Cercosaura ocellata bassleri[3] a été élevée au rang d'espèce (Cercosaura bassleri) par Torres-Carvajal, Lobos et Venegas en 2015[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La  sous-espèce Cercosaura ocellata bassleri a été élevée au rang d'espèce (Cercosaura bassleri) par Torres-Carvajal, Lobos et Venegas en 2015.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ruibal, 1952 : Revisionary notes of some South American Teiidae. Bulletin of the Museum of Comparative Zoology at Harvard College, n. 106, p. 477-529 (texte intégral).
 Wagler, 1830 : Natürliches System der Amphibien : mit vorangehender Classification der Säugethiere und Vögel : ein Beitrag zur vergleichenden Zoologie. München p. 1-354 (texte intégral).</t>
